--- a/processed-data/nonpartisan/race-totals.xlsx
+++ b/processed-data/nonpartisan/race-totals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnsonjoh/Dropbox/Projects/2023/December/wisc-elections-archive/processed-data/nonpartisan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnsonjoh/Library/CloudStorage/Dropbox/Projects/2023/December/wisc-elections-archive/processed-data/nonpartisan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C09B908C-9025-B347-B34C-8866BB958B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE616293-A7BA-2E45-AD88-7C656EDCA31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29400" yWindow="5660" windowWidth="21940" windowHeight="17440" xr2:uid="{C00E9369-2AF5-FF48-B2E5-F9BDA35B596F}"/>
+    <workbookView xWindow="22340" yWindow="500" windowWidth="28860" windowHeight="26600" xr2:uid="{C00E9369-2AF5-FF48-B2E5-F9BDA35B596F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,6 +433,9 @@
       <c r="A2">
         <v>2025</v>
       </c>
+      <c r="B2">
+        <v>2364887</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
